--- a/spliced/walkingToRunning/2023-03-27_19-44-36/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-44-36/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.54438255573141</v>
+        <v>7.460176270583601</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.265381188228204</v>
+        <v>1.940670852003414</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.278587345419258</v>
+        <v>-2.248238760849495</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4044676125049591</v>
+        <v>-1.420729875564575</v>
       </c>
       <c r="G2" t="n">
-        <v>1.176185131072998</v>
+        <v>0.4241084158420563</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6530070900917053</v>
+        <v>0.8468852639198303</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.460176270583601</v>
+        <v>7.05335301366344</v>
       </c>
       <c r="D3" t="n">
-        <v>1.940670852003414</v>
+        <v>1.372367842444078</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.248238760849495</v>
+        <v>-2.086995552326103</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.420729875564575</v>
+        <v>-0.8428239226341248</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4241084158420563</v>
+        <v>1.781787991523743</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8468852639198303</v>
+        <v>1.107874989509582</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.05335301366344</v>
+        <v>10.34839492008603</v>
       </c>
       <c r="D4" t="n">
-        <v>1.372367842444078</v>
+        <v>0.2938980234079889</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.086995552326103</v>
+        <v>1.988064823479517</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8428239226341248</v>
+        <v>2.085587978363037</v>
       </c>
       <c r="G4" t="n">
-        <v>1.781787991523743</v>
+        <v>-0.4573979377746582</v>
       </c>
       <c r="H4" t="n">
-        <v>1.107874989509582</v>
+        <v>-1.845570683479309</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.34839492008603</v>
+        <v>13.00025196733149</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2938980234079889</v>
+        <v>5.53139660276216</v>
       </c>
       <c r="E5" t="n">
-        <v>1.988064823479517</v>
+        <v>-0.4643907300357014</v>
       </c>
       <c r="F5" t="n">
-        <v>2.085587978363037</v>
+        <v>1.892242550849914</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4573979377746582</v>
+        <v>-2.681137561798096</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.845570683479309</v>
+        <v>-5.550560474395752</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13.00025196733149</v>
+        <v>14.22385301261109</v>
       </c>
       <c r="D6" t="n">
-        <v>5.53139660276216</v>
+        <v>6.654247678559409</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4643907300357014</v>
+        <v>-0.2390175523429294</v>
       </c>
       <c r="F6" t="n">
-        <v>1.892242550849914</v>
+        <v>2.531933784484864</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.681137561798096</v>
+        <v>1.24702525138855</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.550560474395752</v>
+        <v>-2.802178144454956</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.22385301261109</v>
+        <v>3.261832862064715</v>
       </c>
       <c r="D7" t="n">
-        <v>6.654247678559409</v>
+        <v>4.847148434868966</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2390175523429294</v>
+        <v>-3.660793435984526</v>
       </c>
       <c r="F7" t="n">
-        <v>2.531933784484864</v>
+        <v>2.003562688827514</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24702525138855</v>
+        <v>2.79219126701355</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.802178144454956</v>
+        <v>-3.079679489135742</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.261832862064715</v>
+        <v>2.012637302793288</v>
       </c>
       <c r="D8" t="n">
-        <v>4.847148434868966</v>
+        <v>-7.111074842255716</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.660793435984526</v>
+        <v>3.683522890354033</v>
       </c>
       <c r="F8" t="n">
-        <v>2.003562688827514</v>
+        <v>-6.388058185577393</v>
       </c>
       <c r="G8" t="n">
-        <v>2.79219126701355</v>
+        <v>-2.879809379577637</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.079679489135742</v>
+        <v>3.848800420761109</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.012637302793288</v>
+        <v>12.92323684692373</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.111074842255716</v>
+        <v>-4.288529297400908</v>
       </c>
       <c r="E9" t="n">
-        <v>3.683522890354033</v>
+        <v>-1.309652714893691</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.388058185577393</v>
+        <v>-14.3317346572876</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.879809379577637</v>
+        <v>-11.627760887146</v>
       </c>
       <c r="H9" t="n">
-        <v>3.848800420761109</v>
+        <v>0.5219795703887939</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12.92323684692373</v>
+        <v>33.17913206692398</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.288529297400908</v>
+        <v>-49.48561506846823</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.309652714893691</v>
+        <v>-8.165793155801595</v>
       </c>
       <c r="F10" t="n">
-        <v>-14.3317346572876</v>
+        <v>6.343982696533203</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.627760887146</v>
+        <v>-4.255598545074463</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5219795703887939</v>
+        <v>-2.953978300094604</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33.17913206692398</v>
+        <v>29.25954614836614</v>
       </c>
       <c r="D11" t="n">
-        <v>-49.48561506846823</v>
+        <v>-1.534980112108286</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.165793155801595</v>
+        <v>10.88253550693887</v>
       </c>
       <c r="F11" t="n">
-        <v>6.343982696533203</v>
+        <v>2.917559623718262</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.255598545074463</v>
+        <v>-4.095808506011963</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.953978300094604</v>
+        <v>-0.09321063756942739</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.25954614836614</v>
+        <v>8.380168257088386</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.534980112108286</v>
+        <v>-41.39767669809267</v>
       </c>
       <c r="E12" t="n">
-        <v>10.88253550693887</v>
+        <v>28.80079953423849</v>
       </c>
       <c r="F12" t="n">
-        <v>2.917559623718262</v>
+        <v>7.193531036376953</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.095808506011963</v>
+        <v>-2.798849105834961</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.09321063756942739</v>
+        <v>-2.648780107498169</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.380168257088386</v>
+        <v>-35.82913970947266</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.39767669809267</v>
+        <v>-7.401230812072754</v>
       </c>
       <c r="E13" t="n">
-        <v>28.80079953423849</v>
+        <v>-22.76275253295898</v>
       </c>
       <c r="F13" t="n">
-        <v>7.193531036376953</v>
+        <v>0.068509817123413</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.798849105834961</v>
+        <v>-2.387657165527344</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.648780107498169</v>
+        <v>1.848233819007873</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-35.82913970947266</v>
+        <v>-0.386668369687925</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.401230812072754</v>
+        <v>6.335032199991126</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.76275253295898</v>
+        <v>-3.633465668250821</v>
       </c>
       <c r="F14" t="n">
-        <v>0.068509817123413</v>
+        <v>-5.729191780090332</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.387657165527344</v>
+        <v>-0.3087935447692871</v>
       </c>
       <c r="H14" t="n">
-        <v>1.848233819007873</v>
+        <v>0.4756405651569366</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.386668369687925</v>
+        <v>-0.332839686295094</v>
       </c>
       <c r="D15" t="n">
-        <v>6.335032199991126</v>
+        <v>-6.914240393145466</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.633465668250821</v>
+        <v>-1.636375197048832</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.729191780090332</v>
+        <v>-3.537942886352539</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3087935447692871</v>
+        <v>-2.56502366065979</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4756405651569366</v>
+        <v>-3.619768619537354</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.332839686295094</v>
+        <v>-1.074484512723721</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.914240393145466</v>
+        <v>-6.283810664867543</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.636375197048832</v>
+        <v>30.66327963204198</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.537942886352539</v>
+        <v>3.089067220687866</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.56502366065979</v>
+        <v>14.31196117401123</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.619768619537354</v>
+        <v>-0.1933455020189285</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.074484512723721</v>
+        <v>4.744677149016312</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.283810664867543</v>
+        <v>18.54307062872537</v>
       </c>
       <c r="E17" t="n">
-        <v>30.66327963204198</v>
+        <v>23.11713764585292</v>
       </c>
       <c r="F17" t="n">
-        <v>3.089067220687866</v>
+        <v>3.182277917861938</v>
       </c>
       <c r="G17" t="n">
-        <v>14.31196117401123</v>
+        <v>-2.187387466430664</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1933455020189285</v>
+        <v>-2.911900281906128</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.744677149016312</v>
+        <v>40.11636086167968</v>
       </c>
       <c r="D18" t="n">
-        <v>18.54307062872537</v>
+        <v>-43.34975341270727</v>
       </c>
       <c r="E18" t="n">
-        <v>23.11713764585292</v>
+        <v>39.71557577725119</v>
       </c>
       <c r="F18" t="n">
-        <v>3.182277917861938</v>
+        <v>3.544467687606812</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.187387466430664</v>
+        <v>-1.478453874588013</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.911900281906128</v>
+        <v>-2.32813549041748</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40.11636086167968</v>
+        <v>8.228727192714175</v>
       </c>
       <c r="D19" t="n">
-        <v>-43.34975341270727</v>
+        <v>2.979075727791802</v>
       </c>
       <c r="E19" t="n">
-        <v>39.71557577725119</v>
+        <v>-10.42038246680967</v>
       </c>
       <c r="F19" t="n">
-        <v>3.544467687606812</v>
+        <v>-2.930742263793945</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.478453874588013</v>
+        <v>2.399108648300171</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.32813549041748</v>
+        <v>2.079396247863769</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.228727192714175</v>
+        <v>8.725867090554029</v>
       </c>
       <c r="D20" t="n">
-        <v>2.979075727791802</v>
+        <v>5.052738584321171</v>
       </c>
       <c r="E20" t="n">
-        <v>-10.42038246680967</v>
+        <v>-5.431183058640126</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.930742263793945</v>
+        <v>-15.79913711547852</v>
       </c>
       <c r="G20" t="n">
-        <v>2.399108648300171</v>
+        <v>-0.4046673476696014</v>
       </c>
       <c r="H20" t="n">
-        <v>2.079396247863769</v>
+        <v>7.474960803985596</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.725867090554029</v>
+        <v>36.49437555773487</v>
       </c>
       <c r="D21" t="n">
-        <v>5.052738584321171</v>
+        <v>-39.19836583630763</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.431183058640126</v>
+        <v>36.29759532007652</v>
       </c>
       <c r="F21" t="n">
-        <v>-15.79913711547852</v>
+        <v>6.207096099853516</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.4046673476696014</v>
+        <v>-14.30157470703125</v>
       </c>
       <c r="H21" t="n">
-        <v>7.474960803985596</v>
+        <v>1.141430854797363</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>17.42426753866236</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-11.81626648738428</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.43557239400905</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.070674419403076</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-3.818307399749756</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.332929134368896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>13.20562122608059</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.217379109612901</v>
+      </c>
+      <c r="E23" t="n">
+        <v>31.13059931787963</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.43622970581055</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.804691195487976</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.571514368057251</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-9.915741953356811</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.114933737393288</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5023386725059567</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4.415188312530518</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.631336450576782</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.9896306991577148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.703923554256075</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12.09582072290882</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-13.1394268562054</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-4.100935459136963</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.459545493125916</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.553257465362549</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.12605124506454</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-8.641085657580049</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-4.591965708239329</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.94806981086731</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.382166862487793</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-2.697782278060913</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.980940161080194</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-14.64417253691573</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.824098981660002</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.418517112731934</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15.49866580963135</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-7.229417324066162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7.344494918297197</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.105810165405226</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11.71896579347811</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.811815142631531</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-5.760817050933838</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-5.106345176696777</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>22.1531091229668</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10.78129972260548</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11.93481448601038</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.468618869781494</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.199088335037231</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-6.144978046417236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>16.40996650169633</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-8.967308833681265</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.306509708536076</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.402371168136597</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.291517019271851</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.192030906677246</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.831812381744486</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.093760391761203</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.286617870988547</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-12.0989408493042</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-13.58198833465576</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-2.806971788406372</v>
       </c>
     </row>
   </sheetData>
